--- a/装修.xlsx
+++ b/装修.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA56E0D-1475-4DBE-A34D-93407374D0A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA40171-A432-483B-99E7-D209A5014A26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>橱柜的底部安装一块踢脚板</t>
+    <t>橱柜的底部安装一块踢脚板。踢脚板的材质有木板的、大理石、瓷砖的，可以选择大理石或者瓷砖来安装橱柜底部，这样防水效果才会更好，使用的过程中也不会出现太大的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1975,7 +1976,7 @@
   <dimension ref="B2:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
